--- a/MyMedsysProject/src/test/resources/TestData/MyTestData.xlsx
+++ b/MyMedsysProject/src/test/resources/TestData/MyTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="18636" windowHeight="5328"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="19068" windowHeight="5652"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -429,9 +429,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
